--- a/biology/Zoologie/Encyocrypta_tillieri/Encyocrypta_tillieri.xlsx
+++ b/biology/Zoologie/Encyocrypta_tillieri/Encyocrypta_tillieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta tillieri est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta tillieri est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur la Dent de Saint-Vincent[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur la Dent de Saint-Vincent.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Simon Tillier[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Simon Tillier.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
